--- a/P0106/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0106/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F997AE9-437E-4BDD-89E5-8E4CE84380D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,13 +90,162 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0106</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>495_GT_G05_11_29DIC2021</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/02_PRODUCTOS/21 Estudios y diseños/Diseño/Informe\495_GT_G05_11_29DIC2021.docx</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ANTIOQUIA - FACULTAD INGENIERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNACIÓN DE ANTIOQUIA </t>
+  </si>
+  <si>
+    <t>UNIDOS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El documento "495_GT_G05_11_29DIC2021" presenta el "INFORME DE DIAGNÓSTICO Y DISEÑO CONSTRUCCIÓN DEL SISTEMA DE ALCANTARILLADO DEL CORREGIMIENTO COLORADO EN EL MUNICIPIO DE NECHÍ" en el marco del Programa de Agua y Saneamiento para la Prosperidad (PAP-PDA). El objetivo del proyecto es mejorar las condiciones de recolección, conducción y tratamiento de aguas residuales, impactando positivamente la calidad de vida de los habitantes de la zona. Se busca una solución integral que garantice un funcionamiento eficiente y sostenible, cumpliendo con los requisitos técnicos, ambientales, jurídicos y sociales establecidos en normativas pertinentes. El documento se divide en varias fases. Primero, se realiza un diagnóstico mediante la recopilación y análisis de información primaria y secundaria sobre los sistemas de acueducto y alcantarillado existentes. Se llevan a cabo visitas de campo y se involucra a la comunidad y entidades locales. Posteriormente, se analiza la información recopilada para identificar problemáticas y proponer soluciones adecuadas. También se evalúan alternativas técnicas y se definen criterios para seleccionar la más conveniente. Finalmente, se presenta un diseño detallado de las obras requeridas y un presupuesto actualizado del proyecto, asegurando su viabilidad y alineación con leyes ambientales y de infraestructura</t>
+  </si>
+  <si>
+    <t>INFORME</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>El documento se organiza en varias secciones que abordan diferentes aspectos del diagnóstico y diseño del sistema de alcantarillado del corregimiento Colorado en Nechí, Antioquia. En la primera parte se realiza la recopilación de información, donde se detalla la recolección y validación de datos mediante visitas a campo. A continuación, se presenta un diagnóstico del área de estudio, que abarca aspectos físicos, socioeconómicos y demográficos de la población. En la sección de diagnóstico se detalla la situación actual del sistema de acueducto y alcantarillado, evidenciando las falencias y necesidades de la infraestructura existente. Posteriormente, el informe propone alternativas de diseño para un nuevo sistema de alcantarillado y una planta de tratamiento de aguas residuales, incluyendo análisis de viabilidad técnica y ambiental. La parte final del documento se centra en conclusiones y recomendaciones. 
+Entre los principales resultados, se destaca que más del 90% de la población local (aproximadamente 1,293 habitantes) vierte sus aguas residuales a campo abierto o directamente al río Cauca, lo que plantea serios riesgos para la salud y el medio ambiente. Este vertido incontrolado es mayormente realizado por viviendas artesanales que utilizan letrinas y pozos sépticos que, debido a su mal estado, contaminan las fuentes de agua cercanas. El diagnóstico elaborado en el informe revela que la comunidad enfrenta una falta crítica de infraestructura de saneamiento. Solo el 10% de la población cuenta con algún tipo de sistema de drenaje, mientras que el resto depende de métodos rudimentarios que no cumplen con normativas sanitarias. Las visitas de campo y la revisión de información existente han evidenciado la urgencia de construir un sistema de alcantarillado que recolecte, transporte y trate adecuadamente las aguas residuales. En términos de conclusiones, se establece que la construcción del sistema de alcantarillado es prioritaria para mejorar las condiciones de vida de los habitantes y que es vital diseñar un sistema que garantice la sostenibilidad del servicio a largo plazo. También se identificó que la infraestructura actual del acueducto presenta problemas severos de deterioro y mal funcionamiento, aunque este no se incluye en el alcance del proyecto actual.
+Las recomendaciones del informe sugieren la creación de un sistema que potencie la recolección y el tratamiento de las aguas residuales, con la construcción de una planta de tratamiento. Se enfatiza la importancia de una gestión participativa que involucre a las comunidades locales para asegurar la sostenibilidad del sistema. Se aconseja realizar capacitaciones al personal encargado del sistema de alcantarillado y promover una educación ambiental entre los usuarios para fomentar una cultura de cuidado y responsabilidad sobre el servicio. Además, se han establecido indicadores claros para medir el éxito del proyecto, tales como el aumento de la cobertura de recolección de aguas residuales del 0% al 100%, y el crecimiento del número de viviendas y población beneficiada, estimando que las obras beneficiarán a 588 viviendas y 2,237 habitantes entre 2021 y 2046. En resumen, el documento recalca la necesidad de actuar de manera urgente y coordinada para abordar los desafíos actuales del saneamiento en el corregimiento Colorado.</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>El documento elabora un diagnóstico completo del sistema de manejo actual de aguas residuales en el municipio de Colorado. En cuanto al diseño de la red de alcantarillado y PTAR seleccionadas se presenta el resumen de los valores calculados, pero no se presenta el detalle de los cálculos, estos se presentan en anexos. Del diseño se puede extraer como variables el caudal de diseño de la planta a 25 años 15L/s, población futura beneficiada 2,237 habitantes</t>
+  </si>
+  <si>
+    <t>Aguas residuales domésticas, ARD, planta de tratamiento de aguas residuales, PTAR, Corregimiento Colorado, Nechí, Antioquia, diagnóstico, sistemas sépticos, cobertura de alcantarillado, indicadores de cobertura</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>EAV COLORADO-NECHÍ</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/02_PRODUCTOS/16 Permiso Vertimientos_Ocupacion_PSMV/Permiso de vertimientos\EAV COLORADO-NECHÍ.pdf</t>
+  </si>
+  <si>
+    <t>El documento "EAV COLORADO-NECHÍ" corresponde al análisis de vertimientos del proyecto "CONSTRUCCIÓN DE LA PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES DEL CORREGIMIENTO COLORADO EN EL MUNICIPIO DE NECHÍ, ANTIOQUIA", en el documento presenta la evaluación ambiental del vertimiento de aguas residuales domésticas (ARD) de la Planta de Tratamiento de Aguas Residuales (PTAR) proyectada en el corregimiento Colorado, municipio de Nechí, Antioquia.  El objetivo principal es elaborar una evaluación ambiental del vertimiento al Río Cauca, conforme al Decreto 1076 de 2015, que busca predecir y valorar los impactos ambientales potenciales que surjan. La metodología empleada incluye una evaluación detallada de los impactos ambientales utilizando modelos de simulación en función de la capacidad de asimilación y dilución del cuerpo de agua receptor en diferentes escenarios: con tratamiento adecuado, con falla parcial en el sistema y condiciones de línea base. Se realiza una caracterización de la calidad del agua en el Río Cauca, además de determinar la capacidad de tratamiento y la eficiencia del sistema propuesto. Asimismo, se llevan a cabo muestreos y análisis químicos para establecer el Índice de Calidad del Agua (ICACOSU) y evaluar el efecto del vertimiento sobre el ecosistema acuático. Este enfoque metodológico permite identificar y valorar el impacto ambiental, facilitando la identificación de medidas de manejo adecuadas para minimizar efectos negativos en el medio ambiente y la salud pública en la comunidad.</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>La metodología utilizada en la evaluación incluye la caracterización de la calidad del agua del río antes de la implementación del vertimiento y el análisis de diferentes escenarios a través de modelos de simulación. Se identificaron tres escenarios clave: 1) vertimiento con tratamiento adecuado (escenario EM1), 2) vertimiento con falla parcial del sistema de tratamiento (escenario EM2), y 3) condición de línea base del río (sin el vertimiento). Se realizaron muestreos sistemáticos en puntos estratégicos del río, donde se evaluaron parámetros fisicoquímicos y biológicos para obtener un Índice de Calidad del Agua (ICACOSU) indicado una calidad del agua buena y determinar el impacto del vertimiento en el ecosistema acuático.
+Los principales resultados indican que, bajo condiciones ideales de operación de la PTAR, el sistema puede alcanzar una eficiencia de tratamiento significativa (hasta un 90% en la reducción de DBO5). En el escenario con tratamiento adecuado, se espera que la calidad del agua en el Río Cauca no exceda los límites permitidos por la normativa vigente, manteniendo los parámetros de calidad dentro de los objetivos planteados. En el escenario de falla parcial del sistema, se evidenció un deterioro en la calidad del agua, aunque los efectos fueron menores a los anticipados inicialmente.
+Las conclusiones del estudio indican que, si bien el vertimiento tendría un impacto ambiental en el río, este es clasificado como “muy bajo”. Esto implica que no se anticipan efectos negativos considerables en la salud pública ni en la calidad del recurso hídrico a corto plazo, siempre y cuando la PTAR funcione dentro de sus parámetros diseñados. Asimismo, se enfatiza que los residuos sólidos generados durante el proceso de tratamiento serán manejados adecuadamente por una empresa prestadora de servicios públicos, garantizando su disposición final.
+En cuanto a las recomendaciones, se sugiere la implementación de un monitoreo continuo de la calidad del agua post-vertimiento para validar el desempeño del sistema de tratamiento y realizar ajustes según sea necesario. Adicionalmente, se aconseja contar con planes de contingencia para abordar posibles fallas en el sistema que puedan comprometer la calidad del agua. La capacitación del personal operativo y la concienciación de la comunidad sobre la importancia de la correcta gestión de aguas residuales son igualmente fundamentales.
+Finalmente, se recomienda realizar un seguimiento a largo plazo de los impactos ambientales, analizando no solo la calidad del agua, sino también la salud del ecosistema acuático en el Río Cauca, asegurando que la PTAR cumpla con su propósito de mejorar la calidad del agua y proteger así el entorno natural y social del corregimiento Colorado y áreas aledañas</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Contiene la localización de la PTAR, el la valoración del ICACOSU. No se realizan modelos de calidad del agua, se aplican formulas de dilución y asimilación</t>
+  </si>
+  <si>
+    <t>Vertimiento, Rio Cauca, Índice de Calidad del Agua, ICACOSU, aguas residuales domésticas, ARD, planta de tratamiento de aguas residuales, PTAR, Corregimiento Colorado, Nechí, Antioquia</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>PGRMV COLORADO-NECHÍ VER5 25_07</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/02_PRODUCTOS/16 Permiso Vertimientos_Ocupacion_PSMV/Permiso de vertimientos\PGRMV COLORADO-NECHÍ VER5 25_07.pdf</t>
+  </si>
+  <si>
+    <t>El documento "PGRMV COLORADO-NECHÍ VER5 25_07" contiene el Plan de Gestión del Riesgo para el Manejo de Vertimientos, en el marco del proyecto "CONSTRUCCIÓN DE LA PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES DEL CORREGIMIENTO COLORADO EN EL MUNICIPIO DE NECHÍ, ANTIOQUIA". Este documento establece un marco para identificar, evaluar y mitigar riesgos asociados con vertimientos, considerando tanto amenazas internas como externas. Se presentan objetivos claros, que incluyen la formulación de medidas preventivas y protocolos para el manejo de posibles contingencias. La metodología empleada incluye el análisis semicuantitativo de riesgos y normativas pertinentes, como la Resolución 1514 de 2012 del Ministerio de Ambiente de Colombia. Se identifica la importancia de gestionar adecuadamente los riesgos para proteger el medio ambiente, la infraestructura y la comunidad. Además, se abordan las características del área de influencia, incluyendo aspectos biológicos, abióticos y socioeconómicos, resaltando la necesidad de estrategias efectivas para asegurar la operatividad del sistema de alcantarillado y su impacto en la región.</t>
+  </si>
+  <si>
+    <t>El análisis de riesgo se realiza a través de diferentes metodologías, que incluyen el uso de colores para clasificar los niveles de riesgo, la metodología semicuantitativa GHA y la norma española UNE 150008. Estos métodos permiten identificar amenazas como fallas estructurales en el sistema, incendios, explosiones y fallas eléctricas, así como problemas operativos como el mantenimiento inadecuado. Se califica la vulnerabilidad y se establece un nivel de riesgo que se clasifica en bajo para la mayoría de los escenarios analizados. La investigación revela que el riesgo de vertimientos con altos niveles de contaminación es probable, especialmente en escenarios de fallas parciales o totales del sistema. Sin embargo, se concluye que el impacto del vertimiento de aguas residuales sin tratar es bajo en relación al caudal de la fuente receptora, representando solo el 0,0004% del mismo, lo que indica una reducción en la preocupación inmediata por este tipo de eventos.
+El documento concluye que es fundamental implementar un plan robusto de gestión de riesgos que contemple no solo la construcción y operación de la PTAR, sino también la preparación y respuesta ante emergencias. La identificación y priorización de riesgos es crucial para garantizar que se tomen medidas preventivas adecuadas y se establezcan protocolos claros para el manejo de desastres. Se destaca la importancia de la colaboración entre las autoridades locales y la comunidad para asegurar el éxito de las medidas propuestas. El análisis de los resultados muestra que a pesar del bajo impacto inmediato del vertimiento de aguas residuales, la gestión del riesgo es esencial para evitar futuros problemas ambientales y de salud pública. Las medidas propuestas en el plan están diseñadas no solo para mitigar riesgos, sino también para establecer políticas internas que fortalezcan la gestión de riesgos en la PTAR y en el sistema de alcantarillado.
+Se recomienda:
+1. Implementación de Medidas Preventivas: Se recomienda adoptar medidas tanto estructurales como no estructurales para mejorar la seguridad y funcionalidad de la PTAR. Estas incluyen mejoras en el diseño de las instalaciones y un manual de operaciones que contemple diversas contingencias.
+2. Capacitación y Concienciación: Es crucial realizar programas de capacitación para el personal operativo y la comunidad sobre la importancia de la gestión del riesgo y las acciones a seguir en caso de emergencias.
+3. Protocolos de Manejo de Emergencias: Desarrollar y practicar protocolos claros para la respuesta ante situaciones de cese de operaciones o fallas del sistema, asegurando que todos los involucrados estén familiarizados con las acciones a seguir.
+4. Monitoreo Continuo: Establecer un sistema de monitoreo y evaluación de los riesgos en el área a través de indicadores clave que permitan realizar ajustes a los planes de gestión de riesgo según sea necesario.
+5. Colaboración Comunitaria: Fomentar la participación activa de la comunidad en los procesos de planificación y respuesta, creando un sentido de pertenencia y responsabilidad que pueda fortalecer la gestión del riesgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento realiza un análisis robusto del riesgo asociado al sistema de tratamiento de agua residual,  el manejo, la respuesta y el seguimiento al plan. Variable: Tabla 4-18. Nivel de riesgo ambiental
+</t>
+  </si>
+  <si>
+    <t>Aguas residuales domésticas, ARD, planta de tratamiento de aguas residuales, PTAR, Corregimiento Colorado, Nechí, Antioquia, plan de gestión del riesgo, metodología semicuantitativa GHA, nivel de riesgo, riesgo ambiental</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>495_GT_51_15MAY_2019</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/02_PRODUCTOS/21 Estudios y diseños/Diseño/Estudios Complementarios/Geologia\495_GT_51_15MAY_2019.pdf</t>
+  </si>
+  <si>
+    <t>El documento "495_GT_51_15MAY_2019 " corresponde al estudio complementario en el área de geología en el marco del proyecto  "Diseño y Formulación de Proyectos PAP-PDA. Contrato Interadministrativo N° 2017-SS-37-0005". El documento contiene el informe de comisión realizado para el pozo de agua subterráena ubicado en el Corregimiento de Colorado, Nechí, cuyos objetivos fueron establecer las condiciones generales del pozo profundo y sus alrededores, para el abastecimiento de agua del acueducto, identificar las condiciones de estabilidad y amenaza de la red de aducción del acueducto y definir las condiciones necesarias para realizar una prueba de bombeo, que permitan determinar el caudal explotable del pozo profundo, en condiciones ambientalmente viables. Se brinda un marco teórico de la geología, geomorfología y tecntónica regional y local. Se presentan acciones para analizar las condiciones del pozo y la red de aducción, y se definen los pasos a seguir para realizar una prueba de bombeo. Se enfatiza la necesidad de un mantenimiento regular para asegurar el funcionamiento óptimo del sistema y evitar obstrucciones. Además, se identifican amenazas naturales y ambientales, como sismos, inundaciones y contaminación por actividades extractivas, que podrían afectar el abastecimiento y la calidad del agua.</t>
+  </si>
+  <si>
+    <t>En el desarrollo de la visita se establece que el pozo tiene una profundidad de 45 metros, un diámetro de la tubería de revestimiento de 6" y un diámetro de la tubería de succión de 3", con la captación de agua subterránea mediante una bomba sumergible de 7 HP. Sin embargo, por condiciones operativas y ambientales, como la baja del nivel freático debido a la emergencia de la represa de Hidroituango, se ha visto necesario profundizar la bomba. Se identificó que el pozo presenta problemas de mantenimiento, ya que no se llevan a cabo revisiones periódicas, lo que influye negativamente en su rendimiento. El documento también indica que la prueba de bombeo es esencial para determinar el caudal explotable del pozo en condiciones viables y para establecer la capacidad de este para satisfacer la demanda actual y futura. Además, se sugiere que el aljibe cercano pueda ser utilizado como pozo de observación durante la prueba. Entre las conclusiones, se destaca la alta importancia de realizar un mantenimiento regular del pozo y sus instalaciones, así como la necesidad de detener el bombeo previo a la prueba para obtener resultados confiables. Las amenazas al sistema de acueducto son clasificadas en tres tipos: sísmicas, inundaciones y sequías, además de la contaminación de acuíferos por actividades mineras de oro en la región. Finalmente, se subraya que, si el caudal del pozo no es suficiente, se deberá considerar la construcción de un nuevo pozo para garantizar un abastecimiento continuo y efectivo, evitando cortes en el suministro de agua durante labores de mantenimiento. El informe recomienda monitoreos periódicos de la calidad del agua para prevenir la contaminación por mercurio, un riesgo significativo en la zona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento corresponde con un diagnóstico en campo de las condiciones del pozo del corregimiento de Colorado, Nechí. Las variables que pueden extraerse del documento corresponden a las condiciones del estado del pozo en la fecha de la visita, como diámetro de tubería de revestimiento, diámetro de tubería de succión, profundidad del pozo, amenzas para el correcto funcionamiento del pozo. </t>
+  </si>
+  <si>
+    <t>Corregimiento Colorado, Nechí, agua potable, agua subterránea, pozo, geología, geomorfología, tectónica, amenza, riesgo, diagnóstico, comisión</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>PTAR  - COLORADO - NECHI - U DE A (E312)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/02_PRODUCTOS/21 Estudios y diseños/Diseño/Estudios Complementarios/Suelos\PTAR  - COLORADO - NECHI - U DE A (E312).pdf</t>
+  </si>
+  <si>
+    <t>El documento "PTAR  - COLORADO - NECHI - U DE A (E312)" tiene por título "ESTUDIO GEOTECNICO Y DE SUELOS PARA LA CIMENTACION DE LA PTAR CORREGIMIENTO COLORADO DEL MUNICIPIO DE NECHI", corresponde a un estudio complementario para el proyecto " Construcción del Sistema de Alcantarillado del Corregimiento Colorado en el Municipio de Nechí, Antioquia". El documento presenta un estudio geotécnico y de suelos para la cimentación de la Planta de Tratamiento de Aguas Residuales (PTAR) en el corregimiento de Colorado, Nechí, con el objetivo de garantizar la seguridad y estabilidad de la obra. La metodología empleada se compone de varias etapas: en primer lugar, se realizaron dos perforaciones (P-1 y P-2) mediante un taladro manual, alcanzando profundidades de 10,50 metros. Durante estas perforaciones, se llevó a cabo un ensayo de penetración estándar cada metro y se determinó el nivel freático. Se recuperaron 20 muestras de suelo, que se sometieron a un análisis en laboratorio donde se realizaron pruebas de humedad natural, límites de Atterberg y lavado sobre tamiz #200. Se elaboraron columnas estratigráficas para detallar la localización y características de los materiales encontrados. Las características geomecánicas que se obtuvieron fueron fundamentales para entender el comportamiento del suelo en la zona del proyecto. El informe concluye con recomendaciones sobre el uso de materiales y prácticas constructivas para mitigar riesgos, enfatizando la importancia del control de calidad y la atención a las condiciones cambiantes del terreno durante la construcción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este estudio se llevó a cabo con el objetivo de evaluar las características del terreno y proporcionar recomendaciones para asegurar la estabilidad y seguridad de la obra.El estudio geotécnico se autorizó para facilitar el diseño de cimentación de la PTAR, enmarcado dentro del Plan Departamental de Agua. El informe incluye la descripción del trabajo de campo y laboratorio, además de los resultados obtenidos, conclusiones y recomendaciones geotécnicas. En la fase de exploración de campo, se realizaron dos perforaciones (P-1 y P-2) mediante un taladro manual, logrando profundidades de 10.50 metros. Cada perforación incluyó la realización de un ensayo de penetración estándar y se determinaron los niveles freáticos. Se recuperaron un total de 20 muestras que se analizaron en el laboratorio. Los resultados de la exploración de campo revelaron diferentes estratos del suelo. En la perforación P-1, por ejemplo, se observó una transición de materiales que incluía arcilla limo arenosa grisácea en los primeros 2 metros y arcilla areno limosa hasta los 9 metros, con un nivel freático a 0.60 metros. En la perforación P-2, también se encontró una estratificación de limos arenosos y arcillosos. En la ivestigación de laboratorio veinte muestras fueron analizadas mediante ensayos de laboratorio que incluyeron humedad natural, límites de Atterberg y lavado sobre tamiz #200. Cada ensayo proporcionó información crucial acerca de la composición y comportamiento del suelo. Por ejemplo, los resultados indicaron que, en el segundo estrato de P-1, la arcilla presentó una humedad natural del 62% y límites líquidos y plásticos que se lograron establecer en 24% y 19%, respectivamente. En el quinto estrato, que mostró un estado de densificación alto, la humedad natural fue del 40% con límites líquidos y plásticos del 33% y 26%, respectivamente. En las conclusiones y recomendaciones se indica que la caracterización geotécnica de la zona es esencial para la construcción de la PTAR, las recomendaciones incluyen el uso de materiales aprobados mediante ensayos de laboratorio previos a su uso en la obra, así como un control de calidad riguroso durante la construcción. Se aconseja evitar dejar las excavaciones expuestas a lluvia prolongada para prevenir la saturación del suelo, lo que podría causar asentamientos instantáneos. También se destaca la necesidad de un anillado continuo de las pilas para garantizar su estabilidad. </t>
+  </si>
+  <si>
+    <t>Variables a lo largo del documento: Limites del suelo, clasificación del suelo, nivel freático</t>
+  </si>
+  <si>
+    <t>PTAR, Planta de Tratamiento de Aguas Residuales, Corregimiento Colorado, Nechí, límites de Atterberg, geotecnia, cimentación, suelos, perforaciones, nivel freático, ensayo de penetración estándar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,29 +260,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,19 +338,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,6 +864,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -683,13 +891,6 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -703,18 +904,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -739,7 +940,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1027,17 +1228,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1051,346 +1252,528 @@
     <col min="18" max="18" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="7" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+    <row r="6" spans="1:20">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:18">
       <c r="R17" s="1"/>
     </row>
   </sheetData>
@@ -1403,15 +1786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1555,28 +1929,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>